--- a/media/extract_description/raw_files/output2_maybank_statement3.xlsx
+++ b/media/extract_description/raw_files/output2_maybank_statement3.xlsx
@@ -264,7 +264,7 @@
     <t>0.53+</t>
   </si>
   <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN</t>
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN</t>
   </si>
   <si>
     <t xml:space="preserve">   DATAMICRON SYSTEMS *   Intern Sept   salary</t>
